--- a/biology/Médecine/Intoxication_professionnelle_au_manganèse/Intoxication_professionnelle_au_manganèse.xlsx
+++ b/biology/Médecine/Intoxication_professionnelle_au_manganèse/Intoxication_professionnelle_au_manganèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Intoxication_professionnelle_au_mangan%C3%A8se</t>
+          <t>Intoxication_professionnelle_au_manganèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une intoxication au manganèse peut être reconnue comme maladie professionnelle dans certains pays, sous certaines conditions.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical. Pour la description clinique de la maladie se reporter à l'article suivant :
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Intoxication_professionnelle_au_mangan%C3%A8se</t>
+          <t>Intoxication_professionnelle_au_manganèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Données professionnelles
-L’oxyde de manganèse (IV) MnO2 est un composé chimique aussi connu comme dioxyde de manganèse. Il est de couleur noire ou brun. On le trouve naturellement dans la pyrolusite qui est la principale source de manganèse métallique. Il est également présent dans les nodules de manganèse. Les principales applications du MnO2 sont les piles sèches comme les piles alcalines et les piles Zn-Cd. En 1976, cette application correspondait à une consommation d’un demi-million de tonnes annuelles de pyrolusite. Il est aussi utilisé dans la production de permanganates comme KMnO4. Il est largement utilisé comme oxydant en chimie organique, par exemple, pour l’oxydation des alcools allyliques
-Données médicales
-L'exposition chronique peut provoquer un syndrome neurologique de type parkinsonien.
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Intoxication_professionnelle_au_manganèse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_professionnelle_au_mangan%C3%A8se</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Données professionnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’oxyde de manganèse (IV) MnO2 est un composé chimique aussi connu comme dioxyde de manganèse. Il est de couleur noire ou brun. On le trouve naturellement dans la pyrolusite qui est la principale source de manganèse métallique. Il est également présent dans les nodules de manganèse. Les principales applications du MnO2 sont les piles sèches comme les piles alcalines et les piles Zn-Cd. En 1976, cette application correspondait à une consommation d’un demi-million de tonnes annuelles de pyrolusite. Il est aussi utilisé dans la production de permanganates comme KMnO4. Il est largement utilisé comme oxydant en chimie organique, par exemple, pour l’oxydation des alcools allyliques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Intoxication_professionnelle_au_manganèse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_professionnelle_au_mangan%C3%A8se</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Législation en  France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Données médicales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exposition chronique peut provoquer un syndrome neurologique de type parkinsonien.
 </t>
         </is>
       </c>
